--- a/projects/rokig/input/ID_BuildingComponent.xlsx
+++ b/projects/rokig/input/ID_BuildingComponent.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71499598-78E8-2E4E-A4E0-578F9882AB69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49AAB29-C47F-6A42-B041-90D1948D20DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -368,9 +368,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
